--- a/storage/powerBI/DimensaoAno.xlsx
+++ b/storage/powerBI/DimensaoAno.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af2e5637b8789c0/simccv_cimatec_v4/Cubo_SIMCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\dramaturgie\dev\ic\simcc-back\storage\powerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{86E7A3A1-FE21-4BAF-B067-994B56C092AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3719E7E3-0477-48E9-AF26-3937B54D2285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CED815-A96B-4622-A03F-6264FC6C91D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B069688C-2A5E-44BA-A95E-4AAC4C503327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B069688C-2A5E-44BA-A95E-4AAC4C503327}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Ano</t>
   </si>
@@ -54,6 +43,9 @@
   </si>
   <si>
     <t>2009-2012</t>
+  </si>
+  <si>
+    <t>2025-2028</t>
   </si>
 </sst>
 </file>
@@ -115,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,18 +403,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FC4D60-5348-43B4-ABFA-5F30B1328790}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -438,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -446,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -454,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -462,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -470,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -478,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -486,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -494,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -502,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -510,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -518,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -526,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -534,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -542,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -550,12 +542,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2009</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2026</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2027</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2028</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
